--- a/Ch05_古典的強化学習/SARSA_vx01_テンプレート.xlsx
+++ b/Ch05_古典的強化学習/SARSA_vx01_テンプレート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miyapad\Dropbox\開発\ExcelReinforcementLearning\Excel_on_Final\Ch05_古典的強化学習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18055830-B21A-48A5-BBD3-D9DFE64E69DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD22C26-7787-45BF-A516-DEF213D61E7C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{900BD54F-964B-4B18-8A97-F2E978D307A8}"/>
   </bookViews>
@@ -2078,7 +2078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9203138-9690-4D79-A4D2-BBA1199990E8}">
   <dimension ref="A1:AM290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="69" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
@@ -34151,7 +34151,7 @@
       </c>
       <c r="P264" s="73"/>
       <c r="Q264" s="29">
-        <f t="shared" ref="Q264:Q327" ca="1" si="124">P264-O264</f>
+        <f t="shared" ref="Q264:Q287" ca="1" si="124">P264-O264</f>
         <v>0</v>
       </c>
       <c r="R264" s="28">
